--- a/biology/Microbiologie/Carnobacteriaceae/Carnobacteriaceae.xlsx
+++ b/biology/Microbiologie/Carnobacteriaceae/Carnobacteriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Carnobacteriaceae sont une famille de bactéries de l'ordre des Lactobacillales.
 Carnobacterium, le genre type, est constitué de bactéries lactiques anaéorobies hétérofermentaires, produisant principalement de l'acide L(+)-lactique à partir de glucose. Sept espèces ont été isolées dans la viande emballée et stockée au froid.
@@ -512,9 +524,11 @@
           <t>Caractères bactériologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La famille des Carnobacteriaceae est composée de bacilles et de coques, à Gram positif[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La famille des Carnobacteriaceae est composée de bacilles et de coques, à Gram positif
 bacille ou coque
 Gram positif
 ne forme pas d'endospores
@@ -548,10 +562,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La famille des Carnobacteriaceae est actuellement délimitée sur la base d'analyses phylogénétiques de la séquence de l'ARNr 16S[2].
-Selon NCBI  (19/5/ 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La famille des Carnobacteriaceae est actuellement délimitée sur la base d'analyses phylogénétiques de la séquence de l'ARNr 16S.
+Selon NCBI  (19/5/ 2013) :
 genre Agitococcus
 genre Alkalibacterium
 genre Allofustis
